--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Color</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">Min_Peek</t>
   </si>
   <si>
-    <t xml:space="preserve">Impersonate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min_Impersonate</t>
+    <t xml:space="preserve">Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min_Trade</t>
   </si>
   <si>
     <t xml:space="preserve">red</t>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black</t>
   </si>
 </sst>
 </file>
@@ -154,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,29 +288,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Color</t>
   </si>
   <si>
+    <t xml:space="preserve">Hex</t>
+  </si>
+  <si>
     <t xml:space="preserve">Money</t>
   </si>
   <si>
@@ -46,16 +49,31 @@
     <t xml:space="preserve">red</t>
   </si>
   <si>
+    <t xml:space="preserve">f86f6f</t>
+  </si>
+  <si>
     <t xml:space="preserve">yellow</t>
   </si>
   <si>
+    <t xml:space="preserve">ffec00</t>
+  </si>
+  <si>
     <t xml:space="preserve">green</t>
   </si>
   <si>
+    <t xml:space="preserve">76bd4f</t>
+  </si>
+  <si>
     <t xml:space="preserve">blue</t>
   </si>
   <si>
+    <t xml:space="preserve">6578ff</t>
+  </si>
+  <si>
     <t xml:space="preserve">brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9a8671</t>
   </si>
 </sst>
 </file>
@@ -151,10 +169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,107 +202,125 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2</v>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -172,7 +172,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,7 +217,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>3</v>
@@ -237,7 +237,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>3</v>
@@ -260,10 +260,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
@@ -283,7 +283,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
@@ -309,7 +309,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>3</v>
@@ -318,7 +318,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>

--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Color</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Hex</t>
   </si>
   <si>
+    <t xml:space="preserve">Background_Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">Money</t>
   </si>
   <si>
@@ -52,28 +55,43 @@
     <t xml:space="preserve">f86f6f</t>
   </si>
   <si>
+    <t xml:space="preserve">f6c8c8</t>
+  </si>
+  <si>
     <t xml:space="preserve">yellow</t>
   </si>
   <si>
     <t xml:space="preserve">ffec00</t>
   </si>
   <si>
+    <t xml:space="preserve">fff8a1</t>
+  </si>
+  <si>
     <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">76bd4f</t>
   </si>
   <si>
+    <t xml:space="preserve">d1ffb7</t>
+  </si>
+  <si>
     <t xml:space="preserve">blue</t>
   </si>
   <si>
     <t xml:space="preserve">6578ff</t>
   </si>
   <si>
+    <t xml:space="preserve">bbc3fb</t>
+  </si>
+  <si>
     <t xml:space="preserve">brown</t>
   </si>
   <si>
     <t xml:space="preserve">9a8671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b5b2af</t>
   </si>
 </sst>
 </file>
@@ -169,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -205,122 +223,140 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,7 +261,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
@@ -270,7 +270,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3</v>
@@ -290,13 +290,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>2</v>
@@ -319,10 +325,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2</v>
@@ -348,10 +354,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>4</v>

--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Color</t>
   </si>
@@ -34,19 +34,16 @@
     <t xml:space="preserve">Money</t>
   </si>
   <si>
-    <t xml:space="preserve">Min_Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min_Peek</t>
+    <t xml:space="preserve">Ally Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Ally Number</t>
   </si>
   <si>
     <t xml:space="preserve">Trade</t>
   </si>
   <si>
-    <t xml:space="preserve">Min_Trade</t>
+    <t xml:space="preserve">Min Trade</t>
   </si>
   <si>
     <t xml:space="preserve">red</t>
@@ -187,10 +184,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,129 +220,114 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6</v>
@@ -354,15 +336,12 @@
         <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="H6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
